--- a/trunk/Measurement Analysis/K15T2-Team22-Team Assignment6/K15T2-Team22-Team Assignment6.xlsx
+++ b/trunk/Measurement Analysis/K15T2-Team22-Team Assignment6/K15T2-Team22-Team Assignment6.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metric 1 - Reading" sheetId="1" r:id="rId1"/>
     <sheet name="Metric 2 - Task" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -665,25 +664,239 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,47 +908,14 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -743,15 +923,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,11 +938,41 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,29 +986,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -818,243 +1028,32 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,11 +1149,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38018048"/>
-        <c:axId val="38040320"/>
+        <c:axId val="81804288"/>
+        <c:axId val="81826560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38018048"/>
+        <c:axId val="81804288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1162,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38040320"/>
+        <c:crossAx val="81826560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38040320"/>
+        <c:axId val="81826560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1181,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38018048"/>
+        <c:crossAx val="81804288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1278,11 +1277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117981952"/>
-        <c:axId val="117983872"/>
+        <c:axId val="81516032"/>
+        <c:axId val="81517568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117981952"/>
+        <c:axId val="81516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117983872"/>
+        <c:crossAx val="81517568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1299,7 +1298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117983872"/>
+        <c:axId val="81517568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,7 +1309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117981952"/>
+        <c:crossAx val="81516032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1406,11 +1405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79698560"/>
-        <c:axId val="79720832"/>
+        <c:axId val="89914368"/>
+        <c:axId val="90055424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79698560"/>
+        <c:axId val="89914368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79720832"/>
+        <c:crossAx val="90055424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1427,7 +1426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79720832"/>
+        <c:axId val="90055424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,7 +1437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79698560"/>
+        <c:crossAx val="89914368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1534,11 +1533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95159424"/>
-        <c:axId val="105331328"/>
+        <c:axId val="90092288"/>
+        <c:axId val="90093824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95159424"/>
+        <c:axId val="90092288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,7 +1546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105331328"/>
+        <c:crossAx val="90093824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1555,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105331328"/>
+        <c:axId val="90093824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1566,7 +1565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95159424"/>
+        <c:crossAx val="90092288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1662,11 +1661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38064896"/>
-        <c:axId val="38066432"/>
+        <c:axId val="90120960"/>
+        <c:axId val="90122496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38064896"/>
+        <c:axId val="90120960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1675,7 +1674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38066432"/>
+        <c:crossAx val="90122496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1683,7 +1682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38066432"/>
+        <c:axId val="90122496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38064896"/>
+        <c:crossAx val="90120960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,11 +1789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88226048"/>
-        <c:axId val="88236032"/>
+        <c:axId val="90130688"/>
+        <c:axId val="90136576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88226048"/>
+        <c:axId val="90130688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88236032"/>
+        <c:crossAx val="90136576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88236032"/>
+        <c:axId val="90136576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88226048"/>
+        <c:crossAx val="90130688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1918,11 +1917,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88260608"/>
-        <c:axId val="88262144"/>
+        <c:axId val="90161152"/>
+        <c:axId val="90162688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88260608"/>
+        <c:axId val="90161152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +1930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88262144"/>
+        <c:crossAx val="90162688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1939,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88262144"/>
+        <c:axId val="90162688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,7 +1949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88260608"/>
+        <c:crossAx val="90161152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,11 +2045,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87950848"/>
-        <c:axId val="87952384"/>
+        <c:axId val="89875968"/>
+        <c:axId val="89877504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87950848"/>
+        <c:axId val="89875968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87952384"/>
+        <c:crossAx val="89877504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87952384"/>
+        <c:axId val="89877504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87950848"/>
+        <c:crossAx val="89875968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,11 +2173,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="87995520"/>
-        <c:axId val="87997056"/>
+        <c:axId val="89889792"/>
+        <c:axId val="89903872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87995520"/>
+        <c:axId val="89889792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87997056"/>
+        <c:crossAx val="89903872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2195,7 +2194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87997056"/>
+        <c:axId val="89903872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87995520"/>
+        <c:crossAx val="89889792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2302,11 +2301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="24715648"/>
-        <c:axId val="24717184"/>
+        <c:axId val="90035328"/>
+        <c:axId val="90036864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24715648"/>
+        <c:axId val="90035328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2314,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24717184"/>
+        <c:crossAx val="90036864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2323,7 +2322,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24717184"/>
+        <c:axId val="90036864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2334,7 +2333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24715648"/>
+        <c:crossAx val="90035328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,11 +2429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="78117504"/>
-        <c:axId val="78205312"/>
+        <c:axId val="81463552"/>
+        <c:axId val="28909568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78117504"/>
+        <c:axId val="81463552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2443,7 +2442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78205312"/>
+        <c:crossAx val="28909568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2451,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78205312"/>
+        <c:axId val="28909568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78117504"/>
+        <c:crossAx val="81463552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2558,11 +2557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117964800"/>
-        <c:axId val="117966336"/>
+        <c:axId val="81043456"/>
+        <c:axId val="81044992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117964800"/>
+        <c:axId val="81043456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117966336"/>
+        <c:crossAx val="81044992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2579,7 +2578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117966336"/>
+        <c:axId val="81044992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117964800"/>
+        <c:crossAx val="81043456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3271,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56:O56"/>
+    <sheetView topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3288,1227 +3287,1231 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="5" spans="3:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
     </row>
     <row r="6" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="58">
         <v>1</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="23">
         <v>28</v>
       </c>
-      <c r="G6" s="83">
+      <c r="G6" s="58">
         <v>8</v>
       </c>
-      <c r="H6" s="83">
+      <c r="H6" s="58">
         <f xml:space="preserve"> (F6+F7)/G6</f>
         <v>7.125</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
     </row>
     <row r="7" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="88"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="24">
         <v>29</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
     </row>
     <row r="8" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="88"/>
-      <c r="D8" s="92">
+      <c r="C8" s="69"/>
+      <c r="D8" s="25">
         <v>2</v>
       </c>
-      <c r="E8" s="84" t="s">
+      <c r="E8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="92">
+      <c r="F8" s="25">
         <v>32</v>
       </c>
-      <c r="G8" s="92">
+      <c r="G8" s="25">
         <v>8</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="25">
         <f>F8/G8</f>
         <v>4</v>
       </c>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
     </row>
     <row r="9" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="88"/>
-      <c r="D9" s="83">
+      <c r="C9" s="69"/>
+      <c r="D9" s="58">
         <v>3</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="23">
         <v>33</v>
       </c>
-      <c r="G9" s="83">
+      <c r="G9" s="58">
         <v>6</v>
       </c>
-      <c r="H9" s="83">
+      <c r="H9" s="58">
         <f>(F9+F10)/G9</f>
         <v>11.166666666666666</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
     </row>
     <row r="10" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="88"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="24">
         <v>34</v>
       </c>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
     </row>
     <row r="11" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="88"/>
-      <c r="D11" s="92">
+      <c r="C11" s="69"/>
+      <c r="D11" s="25">
         <v>4</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="92">
+      <c r="F11" s="25">
         <v>37</v>
       </c>
-      <c r="G11" s="92">
+      <c r="G11" s="25">
         <v>4</v>
       </c>
-      <c r="H11" s="92">
+      <c r="H11" s="25">
         <f>F11/G11</f>
         <v>9.25</v>
       </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="3:15" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="3:15" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="122" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="123">
+      <c r="J13" s="37">
         <f>H6</f>
         <v>7.125</v>
       </c>
-      <c r="K13" s="123">
+      <c r="K13" s="37">
         <f>H8</f>
         <v>4</v>
       </c>
-      <c r="L13" s="123">
+      <c r="L13" s="37">
         <f>H9</f>
         <v>11.166666666666666</v>
       </c>
-      <c r="M13" s="124">
+      <c r="M13" s="38">
         <f>H11</f>
         <v>9.25</v>
       </c>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
     </row>
     <row r="14" spans="3:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D14" s="59">
         <v>1</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="30">
         <v>28</v>
       </c>
-      <c r="G14" s="106">
+      <c r="G14" s="71">
         <v>4</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H14" s="59">
         <f xml:space="preserve"> (F14+F15)/G14</f>
         <v>14.25</v>
       </c>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="109"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="110">
+      <c r="F15" s="31">
         <v>29</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="109"/>
-      <c r="D16" s="112">
+      <c r="C16" s="61"/>
+      <c r="D16" s="32">
         <v>2</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="112">
+      <c r="F16" s="32">
         <v>32</v>
       </c>
-      <c r="G16" s="112">
+      <c r="G16" s="32">
         <v>7</v>
       </c>
-      <c r="H16" s="112">
+      <c r="H16" s="32">
         <f>F16/G16</f>
         <v>4.5714285714285712</v>
       </c>
-      <c r="I16" s="107"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="109"/>
-      <c r="D17" s="103">
+      <c r="C17" s="61"/>
+      <c r="D17" s="59">
         <v>3</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="30">
         <v>33</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G17" s="73">
         <v>4</v>
       </c>
-      <c r="H17" s="103">
+      <c r="H17" s="59">
         <f>(F17+F18)/G17</f>
         <v>16.75</v>
       </c>
-      <c r="I17" s="107"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="109"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="110">
+      <c r="F18" s="31">
         <v>34</v>
       </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="109"/>
-      <c r="D19" s="112">
+      <c r="C19" s="61"/>
+      <c r="D19" s="32">
         <v>4</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="112">
+      <c r="F19" s="32">
         <v>37</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="34">
         <v>2</v>
       </c>
-      <c r="H19" s="112">
+      <c r="H19" s="32">
         <f>F19/G19</f>
         <v>18.5</v>
       </c>
-      <c r="I19" s="107"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
     </row>
     <row r="20" spans="3:15" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
     </row>
     <row r="21" spans="3:15" s="2" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="118"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="125" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="126">
+      <c r="J21" s="40">
         <f>H14</f>
         <v>14.25</v>
       </c>
-      <c r="K21" s="126">
+      <c r="K21" s="40">
         <f>H16</f>
         <v>4.5714285714285712</v>
       </c>
-      <c r="L21" s="126">
+      <c r="L21" s="40">
         <f>H17</f>
         <v>16.75</v>
       </c>
-      <c r="M21" s="127">
+      <c r="M21" s="41">
         <f>H19</f>
         <v>18.5</v>
       </c>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="83">
+      <c r="D22" s="58">
         <v>1</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="85">
+      <c r="F22" s="23">
         <v>28</v>
       </c>
-      <c r="G22" s="100">
+      <c r="G22" s="75">
         <v>6</v>
       </c>
-      <c r="H22" s="83">
+      <c r="H22" s="58">
         <f xml:space="preserve"> (F22+F23)/G22</f>
         <v>9.5</v>
       </c>
-      <c r="I22" s="90"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="88"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84" t="s">
+      <c r="C23" s="69"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="24">
         <v>29</v>
       </c>
-      <c r="G23" s="101"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="88"/>
-      <c r="D24" s="92">
+      <c r="C24" s="69"/>
+      <c r="D24" s="25">
         <v>2</v>
       </c>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="25">
         <v>32</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G24" s="27">
         <v>3</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="25">
         <f>F24/G24</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
     </row>
     <row r="25" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="88"/>
-      <c r="D25" s="83">
+      <c r="C25" s="69"/>
+      <c r="D25" s="58">
         <v>3</v>
       </c>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="85">
+      <c r="F25" s="23">
         <v>33</v>
       </c>
-      <c r="G25" s="100">
+      <c r="G25" s="75">
         <v>11</v>
       </c>
-      <c r="H25" s="83">
+      <c r="H25" s="58">
         <f>(F25+F26)/G25</f>
         <v>6.0909090909090908</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
     </row>
     <row r="26" spans="3:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="88"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84" t="s">
+      <c r="C26" s="69"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="24">
         <v>34</v>
       </c>
-      <c r="G26" s="101"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
     </row>
     <row r="27" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="88"/>
-      <c r="D27" s="92">
+      <c r="C27" s="69"/>
+      <c r="D27" s="25">
         <v>4</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="25">
         <v>37</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="27">
         <v>6</v>
       </c>
-      <c r="H27" s="92">
+      <c r="H27" s="25">
         <f>F27/G27</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
     </row>
     <row r="28" spans="3:15" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
     </row>
     <row r="29" spans="3:15" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="122" t="s">
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="123">
+      <c r="J29" s="37">
         <f>H22</f>
         <v>9.5</v>
       </c>
-      <c r="K29" s="123">
+      <c r="K29" s="37">
         <f>H24</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="L29" s="123">
+      <c r="L29" s="37">
         <f>H25</f>
         <v>6.0909090909090908</v>
       </c>
-      <c r="M29" s="124">
+      <c r="M29" s="38">
         <f>H27</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="N29" s="99"/>
-      <c r="O29" s="99"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
     </row>
     <row r="30" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="103">
+      <c r="D30" s="59">
         <v>1</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="105">
+      <c r="F30" s="30">
         <v>28</v>
       </c>
-      <c r="G30" s="113">
+      <c r="G30" s="73">
         <v>8.5</v>
       </c>
-      <c r="H30" s="103">
+      <c r="H30" s="59">
         <f xml:space="preserve"> (F30+F31)/G30</f>
         <v>6.7058823529411766</v>
       </c>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
     </row>
     <row r="31" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="109"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="110">
+      <c r="F31" s="31">
         <v>29</v>
       </c>
-      <c r="G31" s="114"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
     </row>
     <row r="32" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="109"/>
-      <c r="D32" s="112">
+      <c r="C32" s="61"/>
+      <c r="D32" s="32">
         <v>2</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="112">
+      <c r="F32" s="32">
         <v>32</v>
       </c>
-      <c r="G32" s="116">
+      <c r="G32" s="34">
         <v>6</v>
       </c>
-      <c r="H32" s="112">
+      <c r="H32" s="32">
         <f>F32/G32</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="I32" s="107"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="108"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
     </row>
     <row r="33" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="109"/>
-      <c r="D33" s="103">
+      <c r="C33" s="61"/>
+      <c r="D33" s="59">
         <v>3</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="105">
+      <c r="F33" s="30">
         <v>33</v>
       </c>
-      <c r="G33" s="113">
+      <c r="G33" s="73">
         <v>5</v>
       </c>
-      <c r="H33" s="103">
+      <c r="H33" s="59">
         <f>(F33+F34)/G33</f>
         <v>13.4</v>
       </c>
-      <c r="I33" s="107"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
     </row>
     <row r="34" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="109"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="104" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="110">
+      <c r="F34" s="31">
         <v>34</v>
       </c>
-      <c r="G34" s="114"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
-      <c r="O34" s="108"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
     </row>
     <row r="35" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="109"/>
-      <c r="D35" s="112">
+      <c r="C35" s="61"/>
+      <c r="D35" s="32">
         <v>4</v>
       </c>
-      <c r="E35" s="115" t="s">
+      <c r="E35" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="112">
+      <c r="F35" s="32">
         <v>37</v>
       </c>
-      <c r="G35" s="116">
+      <c r="G35" s="34">
         <v>6</v>
       </c>
-      <c r="H35" s="112">
+      <c r="H35" s="32">
         <f>F35/G35</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="I35" s="107"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="108"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
     </row>
     <row r="36" spans="3:15" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="108"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
     </row>
     <row r="37" spans="3:15" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="118"/>
-      <c r="D37" s="119"/>
-      <c r="E37" s="119"/>
-      <c r="F37" s="119"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="125" t="s">
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J37" s="126">
+      <c r="J37" s="40">
         <f>H30</f>
         <v>6.7058823529411766</v>
       </c>
-      <c r="K37" s="126">
+      <c r="K37" s="40">
         <f>H32</f>
         <v>5.333333333333333</v>
       </c>
-      <c r="L37" s="126">
+      <c r="L37" s="40">
         <f>H33</f>
         <v>13.4</v>
       </c>
-      <c r="M37" s="127">
+      <c r="M37" s="41">
         <f>H35</f>
         <v>6.166666666666667</v>
       </c>
-      <c r="N37" s="121"/>
-      <c r="O37" s="121"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
     </row>
     <row r="38" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="58">
         <v>1</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="85">
+      <c r="F38" s="23">
         <v>28</v>
       </c>
-      <c r="G38" s="100">
+      <c r="G38" s="75">
         <v>7</v>
       </c>
-      <c r="H38" s="83">
+      <c r="H38" s="58">
         <f xml:space="preserve"> (F38+F39)/G38</f>
         <v>8.1428571428571423</v>
       </c>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
     </row>
     <row r="39" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="88"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="84" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="89">
+      <c r="F39" s="24">
         <v>29</v>
       </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
     </row>
     <row r="40" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="88"/>
-      <c r="D40" s="92">
+      <c r="C40" s="69"/>
+      <c r="D40" s="25">
         <v>2</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="25">
         <v>32</v>
       </c>
-      <c r="G40" s="98">
+      <c r="G40" s="27">
         <v>9</v>
       </c>
-      <c r="H40" s="92">
+      <c r="H40" s="25">
         <f>F40/G40</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
     </row>
     <row r="41" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="88"/>
-      <c r="D41" s="83">
+      <c r="C41" s="69"/>
+      <c r="D41" s="58">
         <v>3</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="85">
+      <c r="F41" s="23">
         <v>33</v>
       </c>
-      <c r="G41" s="100">
+      <c r="G41" s="75">
         <v>4</v>
       </c>
-      <c r="H41" s="83">
+      <c r="H41" s="58">
         <f>(F41+F42)/G41</f>
         <v>16.75</v>
       </c>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
     </row>
     <row r="42" spans="3:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="88"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="84" t="s">
+      <c r="C42" s="69"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="89">
+      <c r="F42" s="24">
         <v>34</v>
       </c>
-      <c r="G42" s="101"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
     </row>
     <row r="43" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="88"/>
-      <c r="D43" s="92">
+      <c r="C43" s="69"/>
+      <c r="D43" s="25">
         <v>4</v>
       </c>
-      <c r="E43" s="93" t="s">
+      <c r="E43" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="92">
+      <c r="F43" s="25">
         <v>37</v>
       </c>
-      <c r="G43" s="98">
+      <c r="G43" s="27">
         <v>5</v>
       </c>
-      <c r="H43" s="92">
+      <c r="H43" s="25">
         <f>F43/G43</f>
         <v>7.4</v>
       </c>
-      <c r="I43" s="90"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
     </row>
     <row r="44" spans="3:15" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="94"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="91"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
     </row>
     <row r="45" spans="3:15" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="95"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="122" t="s">
+      <c r="C45" s="55"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="J45" s="123">
+      <c r="J45" s="37">
         <f>H38</f>
         <v>8.1428571428571423</v>
       </c>
-      <c r="K45" s="123">
+      <c r="K45" s="37">
         <f>H41</f>
         <v>16.75</v>
       </c>
-      <c r="L45" s="123">
+      <c r="L45" s="37">
         <f>H41</f>
         <v>16.75</v>
       </c>
-      <c r="M45" s="124">
+      <c r="M45" s="38">
         <f>H43</f>
         <v>7.4</v>
       </c>
-      <c r="N45" s="99"/>
-      <c r="O45" s="99"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
     </row>
     <row r="46" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="103">
+      <c r="D46" s="59">
         <v>1</v>
       </c>
-      <c r="E46" s="104" t="s">
+      <c r="E46" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="105">
+      <c r="F46" s="30">
         <v>28</v>
       </c>
-      <c r="G46" s="113">
+      <c r="G46" s="73">
         <v>3</v>
       </c>
-      <c r="H46" s="103">
+      <c r="H46" s="59">
         <f xml:space="preserve"> (F46+F47)/G46</f>
         <v>19</v>
       </c>
-      <c r="I46" s="107"/>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108"/>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
     </row>
     <row r="47" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="109"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="104" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="110">
+      <c r="F47" s="31">
         <v>29</v>
       </c>
-      <c r="G47" s="114"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
     </row>
     <row r="48" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="109"/>
-      <c r="D48" s="112">
+      <c r="C48" s="61"/>
+      <c r="D48" s="32">
         <v>2</v>
       </c>
-      <c r="E48" s="104" t="s">
+      <c r="E48" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="112">
+      <c r="F48" s="32">
         <v>32</v>
       </c>
-      <c r="G48" s="116">
+      <c r="G48" s="34">
         <v>0</v>
       </c>
-      <c r="H48" s="112">
+      <c r="H48" s="32">
         <v>0</v>
       </c>
-      <c r="I48" s="107"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
-      <c r="L48" s="108"/>
-      <c r="M48" s="108"/>
-      <c r="N48" s="108"/>
-      <c r="O48" s="108"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
     </row>
     <row r="49" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="109"/>
-      <c r="D49" s="103">
+      <c r="C49" s="61"/>
+      <c r="D49" s="59">
         <v>3</v>
       </c>
-      <c r="E49" s="104" t="s">
+      <c r="E49" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="105">
+      <c r="F49" s="30">
         <v>33</v>
       </c>
-      <c r="G49" s="113">
+      <c r="G49" s="73">
         <v>3</v>
       </c>
-      <c r="H49" s="103">
+      <c r="H49" s="59">
         <f>(F49+F50)/G49</f>
         <v>22.333333333333332</v>
       </c>
-      <c r="I49" s="107"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="108"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
     </row>
     <row r="50" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="109"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104" t="s">
+      <c r="C50" s="61"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="110">
+      <c r="F50" s="31">
         <v>34</v>
       </c>
-      <c r="G50" s="114"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="108"/>
-      <c r="M50" s="108"/>
-      <c r="N50" s="108"/>
-      <c r="O50" s="108"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
     </row>
     <row r="51" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="109"/>
-      <c r="D51" s="112">
+      <c r="C51" s="61"/>
+      <c r="D51" s="32">
         <v>4</v>
       </c>
-      <c r="E51" s="115" t="s">
+      <c r="E51" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="112">
+      <c r="F51" s="32">
         <v>37</v>
       </c>
-      <c r="G51" s="116">
+      <c r="G51" s="34">
         <v>2.5</v>
       </c>
-      <c r="H51" s="112">
+      <c r="H51" s="32">
         <f>F51/G51</f>
         <v>14.8</v>
       </c>
-      <c r="I51" s="107"/>
-      <c r="J51" s="108"/>
-      <c r="K51" s="108"/>
-      <c r="L51" s="108"/>
-      <c r="M51" s="108"/>
-      <c r="N51" s="108"/>
-      <c r="O51" s="108"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
     </row>
     <row r="52" spans="3:15" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="117"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
     </row>
     <row r="53" spans="3:15" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="118"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="125" t="s">
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="126">
+      <c r="J53" s="40">
         <f>H46</f>
         <v>19</v>
       </c>
-      <c r="K53" s="126">
+      <c r="K53" s="40">
         <f>H48</f>
         <v>0</v>
       </c>
-      <c r="L53" s="126">
+      <c r="L53" s="40">
         <f>H49</f>
         <v>22.333333333333332</v>
       </c>
-      <c r="M53" s="127">
+      <c r="M53" s="41">
         <f>H51</f>
         <v>14.8</v>
       </c>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
     </row>
     <row r="55" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C55" s="133" t="s">
+      <c r="C55" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
-      <c r="M55" s="128"/>
-      <c r="N55" s="128"/>
-      <c r="O55" s="128"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
     </row>
     <row r="56" spans="3:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="129"/>
-      <c r="N56" s="129"/>
-      <c r="O56" s="129"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="D2:M2"/>
-    <mergeCell ref="C56:O56"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="I22:O28"/>
-    <mergeCell ref="I30:O36"/>
-    <mergeCell ref="I38:O44"/>
-    <mergeCell ref="I46:O52"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I14:O20"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D41:D42"/>
     <mergeCell ref="C21:H21"/>
     <mergeCell ref="C14:C20"/>
     <mergeCell ref="C22:C28"/>
@@ -4532,30 +4535,26 @@
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D41:D42"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="C56:O56"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="I22:O28"/>
+    <mergeCell ref="I30:O36"/>
+    <mergeCell ref="I38:O44"/>
+    <mergeCell ref="I46:O52"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I14:O20"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D44:H44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4567,8 +4566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4582,977 +4581,1009 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="5" spans="3:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="59"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="81"/>
     </row>
     <row r="6" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="69"/>
-      <c r="D7" s="14">
+      <c r="C7" s="120"/>
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="6">
         <v>10</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="6">
         <v>7</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="6">
         <f>F7/G7</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="69"/>
-      <c r="D8" s="70">
+      <c r="C8" s="120"/>
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="18">
         <v>20</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="18">
         <v>10</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="18">
         <f>F8/G8</f>
         <v>2</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="69"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="120"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="69"/>
-      <c r="D10" s="14">
+      <c r="C10" s="120"/>
+      <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="97">
         <v>20</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="97">
         <v>8</v>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="97">
         <f>F10/G10</f>
         <v>2.5</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="69"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="120"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
     </row>
     <row r="12" spans="3:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="71"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
     </row>
     <row r="13" spans="3:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="80" t="s">
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="13">
         <f>H6</f>
         <v>0</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="13">
         <f>H7</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="13">
         <f>H8</f>
         <v>2</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="13">
         <f>H10</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="9">
         <v>1</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="23"/>
-      <c r="D15" s="25">
+      <c r="C15" s="117"/>
+      <c r="D15" s="9">
         <v>2</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="9">
         <v>10</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="9">
         <v>5</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="9">
         <f>F15/G15</f>
         <v>2</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" s="23"/>
-      <c r="D16" s="29">
+      <c r="C16" s="117"/>
+      <c r="D16" s="95">
         <v>3</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="127">
         <v>20</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="127">
         <v>5</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="127">
         <f>F16/G16</f>
         <v>4</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="23"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="25" t="s">
+      <c r="C17" s="117"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="23"/>
-      <c r="D18" s="25">
+      <c r="C18" s="117"/>
+      <c r="D18" s="9">
         <v>4</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="9">
         <v>10</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="9">
         <v>8</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="9">
         <f>F18/G18</f>
         <v>1.25</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
     </row>
     <row r="19" spans="3:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="24"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
     </row>
     <row r="20" spans="3:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="81" t="s">
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="11">
         <f>H13</f>
         <v>0</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="11">
         <f>H15</f>
         <v>2</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="11">
         <f>H16</f>
         <v>4</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="11">
         <f>H18</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="7">
         <v>10</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="7">
         <v>2</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="6">
         <f>F21/G21</f>
         <v>5</v>
       </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="69"/>
-      <c r="D22" s="14">
+      <c r="C22" s="120"/>
+      <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="6">
         <v>10</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="6">
         <v>5</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="6">
         <f>F22/G22</f>
         <v>2</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="69"/>
-      <c r="D23" s="48">
+      <c r="C23" s="120"/>
+      <c r="D23" s="97">
         <v>3</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="97">
         <v>20</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="97">
         <v>5</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="97">
         <f>F23/G23</f>
         <v>4</v>
       </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="69"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="14" t="s">
+      <c r="C24" s="120"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="69"/>
-      <c r="D25" s="14">
+      <c r="C25" s="120"/>
+      <c r="D25" s="6">
         <v>4</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="6">
         <v>10</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="6">
         <v>3</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="6">
         <f>F25/G25</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
     </row>
     <row r="26" spans="3:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="71"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="80" t="s">
+      <c r="C27" s="113"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="8">
         <f>H21</f>
         <v>5</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="8">
         <f>H22</f>
         <v>2</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="8">
         <f>H23</f>
         <v>4</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="13">
         <f>H25</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>10</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>8</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f>F28/G28</f>
         <v>1.25</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="40"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="52"/>
-      <c r="D29" s="4">
+      <c r="C29" s="123"/>
+      <c r="D29" s="3">
         <v>2</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>10</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>7</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f>F29/G29</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="52"/>
-      <c r="D30" s="43">
+      <c r="C30" s="123"/>
+      <c r="D30" s="99">
         <v>3</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="132">
         <v>20</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="132">
         <v>7</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="132">
         <f>F30/G30</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="52"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="4" t="s">
+      <c r="C31" s="123"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="52"/>
-      <c r="D32" s="4">
+      <c r="C32" s="123"/>
+      <c r="D32" s="3">
         <v>4</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>10</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <f>F32/G32</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
     </row>
     <row r="33" spans="3:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="53"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="81" t="s">
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="5">
         <f>H28</f>
         <v>1.25</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="5">
         <f>H29</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="5">
         <f>H30</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="5">
         <f>H32</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="35" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="6">
         <v>1</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="16"/>
-      <c r="D36" s="14">
+      <c r="C36" s="126"/>
+      <c r="D36" s="6">
         <v>2</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="6">
         <v>12</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="6">
         <v>5</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="6">
         <f>F36/G36</f>
         <v>2.4</v>
       </c>
-      <c r="I36" s="76"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="104"/>
+      <c r="M36" s="104"/>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="16"/>
-      <c r="D37" s="48">
+      <c r="C37" s="126"/>
+      <c r="D37" s="97">
         <v>3</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="133">
         <v>20</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="133">
         <v>3</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="133">
         <f>F37/G37</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="I37" s="76"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="16"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="14" t="s">
+      <c r="C38" s="126"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="16"/>
-      <c r="D39" s="14">
+      <c r="C39" s="126"/>
+      <c r="D39" s="6">
         <v>4</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="6">
         <v>10</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="6">
         <v>3</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="6">
         <f>F39/G39</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I39" s="76"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
     </row>
     <row r="40" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
+      <c r="C40" s="126"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="80" t="s">
+      <c r="C41" s="113"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="8">
         <f>H35</f>
         <v>0</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="8">
         <f>H36</f>
         <v>2.4</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="8">
         <f>H37</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="8">
         <f>H39</f>
         <v>3.3333333333333335</v>
       </c>
     </row>
     <row r="42" spans="3:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>1</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="40"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="108"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="108"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="6"/>
-      <c r="D43" s="4">
+      <c r="C43" s="129"/>
+      <c r="D43" s="3">
         <v>2</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>15</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <f>F43/G43</f>
         <v>5</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+      <c r="L43" s="110"/>
+      <c r="M43" s="110"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="6"/>
-      <c r="D44" s="43">
+      <c r="C44" s="129"/>
+      <c r="D44" s="99">
         <v>3</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="132">
         <v>20</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="132">
         <v>5</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="132">
         <f>F44/G44</f>
         <v>4</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="110"/>
+      <c r="M44" s="110"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="6"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="4" t="s">
+      <c r="C45" s="129"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="6"/>
-      <c r="D46" s="4">
+      <c r="C46" s="129"/>
+      <c r="D46" s="3">
         <v>4</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="3">
         <v>20</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>3</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="3">
         <f>F46/G46</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
     </row>
     <row r="47" spans="3:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="8"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="81" t="s">
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="54">
+      <c r="J48" s="12">
         <f>H42</f>
         <v>0</v>
       </c>
-      <c r="K48" s="54">
+      <c r="K48" s="12">
         <f>H43</f>
         <v>5</v>
       </c>
-      <c r="L48" s="54">
+      <c r="L48" s="12">
         <f>H44</f>
         <v>4</v>
       </c>
-      <c r="M48" s="54">
+      <c r="M48" s="12">
         <f>H46</f>
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="50" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C50" s="132" t="s">
+      <c r="C50" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="128"/>
-      <c r="M50" s="128"/>
-      <c r="N50" s="128"/>
-      <c r="O50" s="128"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
     </row>
     <row r="51" spans="3:15" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="131" t="s">
+      <c r="C51" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
-      <c r="N51" s="131"/>
-      <c r="O51" s="131"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="I28:M33"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C21:C26"/>
+    <mergeCell ref="C28:C33"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="C51:O51"/>
     <mergeCell ref="I5:M5"/>
@@ -5569,52 +5600,8 @@
     <mergeCell ref="I35:M40"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="I42:M47"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C21:C26"/>
-    <mergeCell ref="C28:C33"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="I28:M33"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>